--- a/Design/Excel/ShareTool/Datas/__tables__.xlsx
+++ b/Design/Excel/ShareTool/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,10 +109,10 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>RemoteBuilderConfig</t>
-  </si>
-  <si>
-    <t>RemoteBuilderData</t>
+    <t>DTRemoteBuilderConfig</t>
+  </si>
+  <si>
+    <t>DRRemoteBuilderConfig</t>
   </si>
   <si>
     <t>RemoteBuilder.xlsx</t>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
